--- a/Movies_2020.xlsx
+++ b/Movies_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandahutter/Documents/PythonCode/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B4E4D8-17EC-724E-8A83-EC6BE01C94AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B76DC7-DFB6-C24B-97F7-06D42403A863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{A3B12357-EC55-AF4D-B077-7D2829E2EA33}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{A3B12357-EC55-AF4D-B077-7D2829E2EA33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -795,9 +795,6 @@
     <t>Alan J. Pakula</t>
   </si>
   <si>
-    <t>Drama/Political/Thriller</t>
-  </si>
-  <si>
     <t>Harry Potter and the Sorcerer's Stone</t>
   </si>
   <si>
@@ -894,9 +891,6 @@
     <t>Legal/Drama</t>
   </si>
   <si>
-    <t>Rocky I</t>
-  </si>
-  <si>
     <t>John G Avildsen</t>
   </si>
   <si>
@@ -915,12 +909,6 @@
     <t>Sylvester Stalone</t>
   </si>
   <si>
-    <t>Rocky iii</t>
-  </si>
-  <si>
-    <t>rocky iv</t>
-  </si>
-  <si>
     <t>13th</t>
   </si>
   <si>
@@ -1066,6 +1054,18 @@
   </si>
   <si>
     <t>Comedy/Fantasy</t>
+  </si>
+  <si>
+    <t>Drama/Thriller</t>
+  </si>
+  <si>
+    <t>Rocky IV</t>
+  </si>
+  <si>
+    <t>Rocky III</t>
+  </si>
+  <si>
+    <t>Rocky</t>
   </si>
 </sst>
 </file>
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D78A0-8C19-384F-8CAB-8EF5236C88A7}">
   <dimension ref="A1:F980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3774,12 +3774,12 @@
         <v>252</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>253</v>
+        <v>340</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B118" s="1">
         <v>0.77</v>
@@ -3791,15 +3791,15 @@
         <v>2001</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>255</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B119" s="1">
         <v>0.85</v>
@@ -3811,15 +3811,15 @@
         <v>2012</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B120" s="1">
         <v>0.88</v>
@@ -3831,7 +3831,7 @@
         <v>1989</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>14</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B121" s="1">
         <v>0.67</v>
@@ -3851,15 +3851,15 @@
         <v>2016</v>
       </c>
       <c r="E121" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B122" s="1">
         <v>0.95</v>
@@ -3871,15 +3871,15 @@
         <v>2016</v>
       </c>
       <c r="E122" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>266</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B123" s="1">
         <v>0.91</v>
@@ -3891,15 +3891,15 @@
         <v>2019</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B124" s="1">
         <v>0.92</v>
@@ -3911,7 +3911,7 @@
         <v>2019</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>135</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B125" s="1">
         <v>0.66</v>
@@ -3931,15 +3931,15 @@
         <v>1956</v>
       </c>
       <c r="E125" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="F125" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B126" s="1">
         <v>0.87</v>
@@ -3951,15 +3951,15 @@
         <v>1973</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B127" s="1">
         <v>0.84</v>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B128" s="1">
         <v>0.96</v>
@@ -3994,12 +3994,12 @@
         <v>161</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B129" s="1">
         <v>0.94</v>
@@ -4011,7 +4011,7 @@
         <v>1994</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>209</v>
@@ -4019,7 +4019,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B130" s="1">
         <v>0.91</v>
@@ -4031,15 +4031,15 @@
         <v>2019</v>
       </c>
       <c r="E130" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>284</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>286</v>
+        <v>343</v>
       </c>
       <c r="B131" s="1">
         <v>0.85</v>
@@ -4051,15 +4051,15 @@
         <v>1976</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B132" s="1">
         <v>0.75</v>
@@ -4071,7 +4071,7 @@
         <v>1954</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>31</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B133" s="1">
         <v>0.87</v>
@@ -4091,15 +4091,15 @@
         <v>1979</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="B134" s="1">
         <v>0.89</v>
@@ -4111,15 +4111,15 @@
         <v>1982</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="B135" s="1">
         <v>0.68</v>
@@ -4131,15 +4131,15 @@
         <v>1985</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B136" s="1">
         <v>0.9</v>
@@ -4151,15 +4151,15 @@
         <v>2016</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B137" s="1">
         <v>0.9</v>
@@ -4171,7 +4171,7 @@
         <v>2017</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>201</v>
@@ -4179,7 +4179,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B138" s="1">
         <v>0.88</v>
@@ -4191,15 +4191,15 @@
         <v>2010</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B139" s="1">
         <v>0.73</v>
@@ -4211,7 +4211,7 @@
         <v>2016</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>201</v>
@@ -4219,7 +4219,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B140" s="1">
         <v>0.92</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B141" s="1">
         <v>0.93</v>
@@ -4251,7 +4251,7 @@
         <v>2020</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>113</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B142" s="1">
         <v>0.89</v>
@@ -4271,15 +4271,15 @@
         <v>2017</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B143" s="1">
         <v>0.9</v>
@@ -4291,7 +4291,7 @@
         <v>2018</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>209</v>
@@ -4299,7 +4299,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B144" s="1">
         <v>0.85</v>
@@ -4311,7 +4311,7 @@
         <v>1998</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>14</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B145" s="1">
         <v>0.87</v>
@@ -4331,15 +4331,15 @@
         <v>2015</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B146" s="1">
         <v>0.87</v>
@@ -4351,15 +4351,15 @@
         <v>2018</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B147" s="1">
         <v>0.9</v>
@@ -4371,7 +4371,7 @@
         <v>2010</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>59</v>
@@ -4379,7 +4379,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B148" s="1">
         <v>0.9</v>
@@ -4391,15 +4391,15 @@
         <v>2017</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B149" s="1">
         <v>0.92</v>
@@ -4411,15 +4411,15 @@
         <v>1985</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B150" s="1">
         <v>0.8</v>
@@ -4431,15 +4431,15 @@
         <v>2010</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B151" s="1">
         <v>0.85</v>
@@ -4451,15 +4451,15 @@
         <v>1989</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B152" s="1">
         <v>0.72</v>
@@ -4474,12 +4474,12 @@
         <v>178</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B153" s="1">
         <v>0.84</v>
@@ -4491,15 +4491,15 @@
         <v>2019</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B154" s="1">
         <v>0.5</v>
@@ -4511,7 +4511,7 @@
         <v>2020</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>14</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B155" s="1">
         <v>0.88</v>
@@ -4531,15 +4531,15 @@
         <v>1990</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B156" s="1">
         <v>0.83</v>
@@ -4551,7 +4551,7 @@
         <v>1994</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>242</v>
@@ -4571,7 +4571,7 @@
         <v>2003</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>242</v>
@@ -4579,7 +4579,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B158" s="1">
         <v>0.65</v>
@@ -4591,10 +4591,10 @@
         <v>2019</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">

--- a/Movies_2020.xlsx
+++ b/Movies_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandahutter/Documents/PythonCode/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B76DC7-DFB6-C24B-97F7-06D42403A863}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EA2BE3-3B79-A447-9BC9-EF3CE2ACC522}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{A3B12357-EC55-AF4D-B077-7D2829E2EA33}"/>
   </bookViews>
@@ -54,18 +54,12 @@
     <t>Genre</t>
   </si>
   <si>
-    <t>Star Wars VII: The Force Awakens</t>
-  </si>
-  <si>
     <t>Abrams</t>
   </si>
   <si>
     <t>Fantasy/ScienceFiction</t>
   </si>
   <si>
-    <t>Hunger Games 3b</t>
-  </si>
-  <si>
     <t>Lawrence</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Drama/Musical</t>
   </si>
   <si>
-    <t>Dr. Strangelove</t>
-  </si>
-  <si>
     <t>Kubrick</t>
   </si>
   <si>
@@ -141,9 +132,6 @@
     <t>Action/Drama</t>
   </si>
   <si>
-    <t>Hail Ceasar</t>
-  </si>
-  <si>
     <t>Cohen</t>
   </si>
   <si>
@@ -174,12 +162,6 @@
     <t>Annie Hall</t>
   </si>
   <si>
-    <t>Knotting Hill</t>
-  </si>
-  <si>
-    <t>Wolf of Wall Street</t>
-  </si>
-  <si>
     <t>Scorsese</t>
   </si>
   <si>
@@ -216,9 +198,6 @@
     <t>Comedy/Romance</t>
   </si>
   <si>
-    <t>Girl with the Dragon Tattoo</t>
-  </si>
-  <si>
     <t>Crime/Mystery</t>
   </si>
   <si>
@@ -228,9 +207,6 @@
     <t>Nichols</t>
   </si>
   <si>
-    <t>Mike &amp; Dave Need Wedding Dates</t>
-  </si>
-  <si>
     <t>Szymanski</t>
   </si>
   <si>
@@ -642,9 +618,6 @@
     <t>Drama/Indie</t>
   </si>
   <si>
-    <t>40 Year Old Virgin</t>
-  </si>
-  <si>
     <t>Judd Apatow</t>
   </si>
   <si>
@@ -1038,9 +1011,6 @@
     <t>Western/Sci-Fi</t>
   </si>
   <si>
-    <t>The Santa clause</t>
-  </si>
-  <si>
     <t>John Pasquin</t>
   </si>
   <si>
@@ -1066,13 +1036,43 @@
   </si>
   <si>
     <t>Rocky</t>
+  </si>
+  <si>
+    <t>The Wolf of Wall Street</t>
+  </si>
+  <si>
+    <t>The Hunger Games: Mockingjay - Part 2</t>
+  </si>
+  <si>
+    <t>Star Wars: The Force Awakens</t>
+  </si>
+  <si>
+    <t>Dr. Strangelove or: How I Learned to Stop Worrying and Love the Bomb</t>
+  </si>
+  <si>
+    <t>Notting Hill</t>
+  </si>
+  <si>
+    <t>The Girl with the Dragon Tattoo</t>
+  </si>
+  <si>
+    <t>Mike and Dave Need Wedding Dates</t>
+  </si>
+  <si>
+    <t>Hail,  Caesar!</t>
+  </si>
+  <si>
+    <t>The 40 Year Old Virgin</t>
+  </si>
+  <si>
+    <t>The Santa Clause</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1083,6 +1083,18 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1107,11 +1119,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,10 +1440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D78A0-8C19-384F-8CAB-8EF5236C88A7}">
-  <dimension ref="A1:F980"/>
+  <dimension ref="A1:J980"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C128" sqref="C128"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1437,7 +1451,7 @@
     <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1457,9 +1471,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="B2" s="2">
         <v>0.85</v>
@@ -1471,15 +1485,15 @@
         <v>2015</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>335</v>
       </c>
       <c r="B3" s="2">
         <v>0.65</v>
@@ -1491,15 +1505,15 @@
         <v>2015</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="B4" s="2">
         <v>0.65</v>
@@ -1511,15 +1525,15 @@
         <v>2004</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>0.95</v>
@@ -1531,15 +1545,15 @@
         <v>1994</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="2">
         <v>0.95</v>
@@ -1551,15 +1565,15 @@
         <v>2015</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="2">
         <v>0.4</v>
@@ -1571,15 +1585,15 @@
         <v>2014</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="B8" s="2">
         <v>0.55000000000000004</v>
@@ -1591,15 +1605,16 @@
         <v>1950</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="B9" s="2">
         <v>0.5</v>
@@ -1611,15 +1626,15 @@
         <v>1964</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B10" s="2">
         <v>0.8</v>
@@ -1631,15 +1646,15 @@
         <v>1973</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2">
         <v>0.9</v>
@@ -1651,15 +1666,15 @@
         <v>1999</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>35</v>
+        <v>341</v>
       </c>
       <c r="B12" s="2">
         <v>0.85</v>
@@ -1671,15 +1686,15 @@
         <v>2016</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="2">
         <v>0.9</v>
@@ -1688,18 +1703,19 @@
         <v>42412</v>
       </c>
       <c r="D13" s="1">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B14" s="2">
         <v>0.9</v>
@@ -1711,15 +1727,15 @@
         <v>2012</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="2">
         <v>0.5</v>
@@ -1731,15 +1747,15 @@
         <v>1939</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2">
         <v>0.8</v>
@@ -1751,15 +1767,15 @@
         <v>1977</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>338</v>
       </c>
       <c r="B17" s="2">
         <v>0.65</v>
@@ -1771,15 +1787,15 @@
         <v>1999</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>334</v>
       </c>
       <c r="B18" s="2">
         <v>0.8</v>
@@ -1791,15 +1807,15 @@
         <v>2013</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2">
         <v>0.85</v>
@@ -1811,15 +1827,15 @@
         <v>1992</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2">
         <v>0.95</v>
@@ -1831,15 +1847,15 @@
         <v>1959</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B21" s="2">
         <v>0.75</v>
@@ -1851,15 +1867,15 @@
         <v>1955</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>0.95</v>
@@ -1871,15 +1887,15 @@
         <v>1954</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2">
         <v>0.65</v>
@@ -1891,15 +1907,15 @@
         <v>1999</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="B24" s="2">
         <v>0.9</v>
@@ -1911,15 +1927,15 @@
         <v>2011</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B25" s="2">
         <v>0.4</v>
@@ -1931,15 +1947,15 @@
         <v>1986</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>340</v>
       </c>
       <c r="B26" s="2">
         <v>0.7</v>
@@ -1951,15 +1967,15 @@
         <v>2016</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>337</v>
       </c>
       <c r="B27" s="2">
         <v>0.7</v>
@@ -1971,15 +1987,15 @@
         <v>1964</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2">
         <v>0.75</v>
@@ -1991,15 +2007,15 @@
         <v>2013</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B29" s="2">
         <v>0.75</v>
@@ -2011,15 +2027,15 @@
         <v>1986</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B30" s="2">
         <v>0.85</v>
@@ -2031,15 +2047,15 @@
         <v>2006</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B31" s="2">
         <v>0.8</v>
@@ -2051,15 +2067,15 @@
         <v>1967</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B32" s="2">
         <v>0.9</v>
@@ -2071,15 +2087,15 @@
         <v>1944</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2">
         <v>0.8</v>
@@ -2091,15 +2107,15 @@
         <v>2008</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B34" s="2">
         <v>0.9</v>
@@ -2111,15 +2127,15 @@
         <v>1955</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B35" s="2">
         <v>0.9</v>
@@ -2131,15 +2147,15 @@
         <v>1954</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B36" s="2">
         <v>0.8</v>
@@ -2151,15 +2167,15 @@
         <v>1996</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2">
         <v>0.75</v>
@@ -2171,15 +2187,15 @@
         <v>1936</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2">
         <v>0.85</v>
@@ -2191,15 +2207,15 @@
         <v>1958</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2">
         <v>0.75</v>
@@ -2211,15 +2227,15 @@
         <v>1995</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2">
         <v>0.8</v>
@@ -2231,15 +2247,15 @@
         <v>1999</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2">
         <v>0.8</v>
@@ -2251,15 +2267,15 @@
         <v>1941</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B42" s="2">
         <v>0.95</v>
@@ -2271,15 +2287,15 @@
         <v>1954</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B43" s="2">
         <v>0.7</v>
@@ -2291,15 +2307,15 @@
         <v>2016</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2">
         <v>0.85</v>
@@ -2311,15 +2327,15 @@
         <v>2003</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2">
         <v>0.85</v>
@@ -2331,15 +2347,15 @@
         <v>1957</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2">
         <v>0.9</v>
@@ -2351,15 +2367,15 @@
         <v>1953</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2">
         <v>0.9</v>
@@ -2371,15 +2387,15 @@
         <v>1952</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2">
         <v>0.9</v>
@@ -2391,15 +2407,15 @@
         <v>2010</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2">
         <v>0.75</v>
@@ -2411,15 +2427,15 @@
         <v>2016</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B50" s="2">
         <v>0.9</v>
@@ -2431,15 +2447,15 @@
         <v>2016</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2">
         <v>0.85</v>
@@ -2451,15 +2467,15 @@
         <v>2009</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B52" s="2">
         <v>0.85</v>
@@ -2471,15 +2487,15 @@
         <v>2008</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B53" s="2">
         <v>0.8</v>
@@ -2491,15 +2507,15 @@
         <v>1923</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2">
         <v>0.55000000000000004</v>
@@ -2511,15 +2527,15 @@
         <v>1954</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2">
         <v>0.45</v>
@@ -2531,15 +2547,15 @@
         <v>1994</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2">
         <v>0.9</v>
@@ -2551,15 +2567,15 @@
         <v>2017</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B57" s="2">
         <v>0.85</v>
@@ -2571,15 +2587,15 @@
         <v>2017</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B58" s="2">
         <v>0.9</v>
@@ -2591,15 +2607,15 @@
         <v>2017</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2">
         <v>0.9</v>
@@ -2611,15 +2627,15 @@
         <v>1954</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B60" s="2">
         <v>0.7</v>
@@ -2631,15 +2647,15 @@
         <v>2017</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B61" s="2">
         <v>0.6</v>
@@ -2651,15 +2667,15 @@
         <v>1957</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B62" s="2">
         <v>0.9</v>
@@ -2671,15 +2687,15 @@
         <v>2015</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B63" s="2">
         <v>0.95</v>
@@ -2691,15 +2707,15 @@
         <v>2017</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B64" s="1">
         <v>0.85</v>
@@ -2711,15 +2727,15 @@
         <v>2017</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B65" s="1">
         <v>0.8</v>
@@ -2731,15 +2747,15 @@
         <v>2017</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B66" s="1">
         <v>0.65</v>
@@ -2751,15 +2767,15 @@
         <v>2018</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B67" s="1">
         <v>0.8</v>
@@ -2771,15 +2787,15 @@
         <v>2017</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B68" s="1">
         <v>0.8</v>
@@ -2791,15 +2807,15 @@
         <v>2018</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B69" s="1">
         <v>0.9</v>
@@ -2811,15 +2827,15 @@
         <v>2001</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B70" s="1">
         <v>0.65</v>
@@ -2831,15 +2847,15 @@
         <v>2018</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B71" s="1">
         <v>0.8</v>
@@ -2851,15 +2867,15 @@
         <v>1958</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B72" s="1">
         <v>0.85</v>
@@ -2871,15 +2887,15 @@
         <v>1961</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B73" s="1">
         <v>0.85</v>
@@ -2891,15 +2907,15 @@
         <v>1946</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B74" s="1">
         <v>0.7</v>
@@ -2911,15 +2927,15 @@
         <v>2017</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B75" s="1">
         <v>0.9</v>
@@ -2931,15 +2947,15 @@
         <v>2016</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B76" s="1">
         <v>0.3</v>
@@ -2951,15 +2967,15 @@
         <v>1955</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B77" s="1">
         <v>0.99</v>
@@ -2971,15 +2987,15 @@
         <v>2018</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B78" s="1">
         <v>0.9</v>
@@ -2991,15 +3007,15 @@
         <v>2018</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B79" s="1">
         <v>0.8</v>
@@ -3011,15 +3027,15 @@
         <v>2017</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B80" s="1">
         <v>0.75</v>
@@ -3031,15 +3047,15 @@
         <v>1984</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B81" s="1">
         <v>0.85</v>
@@ -3051,15 +3067,15 @@
         <v>2018</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B82" s="1">
         <v>0.7</v>
@@ -3071,15 +3087,15 @@
         <v>2003</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B83" s="1">
         <v>0.85</v>
@@ -3091,15 +3107,15 @@
         <v>2009</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B84" s="1">
         <v>0.95</v>
@@ -3111,15 +3127,15 @@
         <v>1954</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B85" s="1">
         <v>0.99</v>
@@ -3131,15 +3147,15 @@
         <v>2017</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B86" s="1">
         <v>0.65</v>
@@ -3151,15 +3167,15 @@
         <v>2001</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B87" s="1">
         <v>0.85</v>
@@ -3171,15 +3187,15 @@
         <v>2017</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B88" s="1">
         <v>0.75</v>
@@ -3191,15 +3207,15 @@
         <v>1985</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B89" s="1">
         <v>0.9</v>
@@ -3211,15 +3227,15 @@
         <v>1942</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B90" s="1">
         <v>0.45</v>
@@ -3231,15 +3247,15 @@
         <v>1945</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B91" s="1">
         <v>0.65</v>
@@ -3251,15 +3267,15 @@
         <v>2018</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B92" s="1">
         <v>0.9</v>
@@ -3271,15 +3287,15 @@
         <v>2004</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B93" s="1">
         <v>0.55000000000000004</v>
@@ -3291,15 +3307,15 @@
         <v>2003</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="B94" s="1">
         <v>0.6</v>
@@ -3311,15 +3327,15 @@
         <v>2005</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B95" s="1">
         <v>0.9</v>
@@ -3331,15 +3347,15 @@
         <v>2019</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B96" s="1">
         <v>0.8</v>
@@ -3351,15 +3367,15 @@
         <v>1997</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B97" s="1">
         <v>0.7</v>
@@ -3371,15 +3387,15 @@
         <v>1986</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B98" s="1">
         <v>0.55000000000000004</v>
@@ -3391,15 +3407,15 @@
         <v>1969</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B99" s="1">
         <v>0.7</v>
@@ -3411,15 +3427,15 @@
         <v>2016</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B100" s="1">
         <v>0.65</v>
@@ -3431,15 +3447,15 @@
         <v>2012</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B101" s="1">
         <v>0.8</v>
@@ -3451,15 +3467,15 @@
         <v>1940</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B102" s="1">
         <v>0.9</v>
@@ -3471,15 +3487,15 @@
         <v>2018</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B103" s="1">
         <v>0.7</v>
@@ -3491,15 +3507,15 @@
         <v>1985</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B104" s="1">
         <v>0.55000000000000004</v>
@@ -3511,15 +3527,15 @@
         <v>2019</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B105" s="1">
         <v>0.8</v>
@@ -3531,15 +3547,15 @@
         <v>2019</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="B106" s="1">
         <v>0.8</v>
@@ -3551,15 +3567,15 @@
         <v>1977</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B107" s="1">
         <v>0.95</v>
@@ -3571,15 +3587,15 @@
         <v>2019</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B108" s="1">
         <v>0.75</v>
@@ -3591,15 +3607,15 @@
         <v>1980</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B109" s="1">
         <v>0.7</v>
@@ -3611,15 +3627,15 @@
         <v>2006</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B110" s="1">
         <v>0.85</v>
@@ -3631,15 +3647,15 @@
         <v>2019</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B111" s="1">
         <v>0.85</v>
@@ -3651,15 +3667,15 @@
         <v>2019</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B112" s="1">
         <v>0.8</v>
@@ -3671,15 +3687,15 @@
         <v>2003</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B113" s="1">
         <v>0.8</v>
@@ -3691,15 +3707,15 @@
         <v>2003</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B114" s="1">
         <v>0.89</v>
@@ -3711,15 +3727,15 @@
         <v>2019</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B115" s="1">
         <v>0.65</v>
@@ -3731,15 +3747,15 @@
         <v>1989</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B116" s="1">
         <v>0.83</v>
@@ -3751,15 +3767,15 @@
         <v>1951</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B117" s="1">
         <v>0.9</v>
@@ -3771,15 +3787,15 @@
         <v>1976</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B118" s="1">
         <v>0.77</v>
@@ -3791,15 +3807,15 @@
         <v>2001</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B119" s="1">
         <v>0.85</v>
@@ -3811,15 +3827,15 @@
         <v>2012</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B120" s="1">
         <v>0.88</v>
@@ -3831,15 +3847,15 @@
         <v>1989</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B121" s="1">
         <v>0.67</v>
@@ -3851,15 +3867,15 @@
         <v>2016</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B122" s="1">
         <v>0.95</v>
@@ -3871,15 +3887,15 @@
         <v>2016</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B123" s="1">
         <v>0.91</v>
@@ -3891,15 +3907,15 @@
         <v>2019</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B124" s="1">
         <v>0.92</v>
@@ -3911,15 +3927,15 @@
         <v>2019</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B125" s="1">
         <v>0.66</v>
@@ -3931,15 +3947,15 @@
         <v>1956</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B126" s="1">
         <v>0.87</v>
@@ -3951,15 +3967,15 @@
         <v>1973</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B127" s="1">
         <v>0.84</v>
@@ -3971,15 +3987,15 @@
         <v>1993</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B128" s="1">
         <v>0.96</v>
@@ -3991,15 +4007,15 @@
         <v>1954</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B129" s="1">
         <v>0.94</v>
@@ -4011,15 +4027,15 @@
         <v>1994</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B130" s="1">
         <v>0.91</v>
@@ -4031,15 +4047,15 @@
         <v>2019</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="B131" s="1">
         <v>0.85</v>
@@ -4051,15 +4067,15 @@
         <v>1976</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B132" s="1">
         <v>0.75</v>
@@ -4071,15 +4087,15 @@
         <v>1954</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B133" s="1">
         <v>0.87</v>
@@ -4091,15 +4107,15 @@
         <v>1979</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B134" s="1">
         <v>0.89</v>
@@ -4111,15 +4127,15 @@
         <v>1982</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="B135" s="1">
         <v>0.68</v>
@@ -4131,15 +4147,15 @@
         <v>1985</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B136" s="1">
         <v>0.9</v>
@@ -4151,15 +4167,15 @@
         <v>2016</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B137" s="1">
         <v>0.9</v>
@@ -4171,15 +4187,15 @@
         <v>2017</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B138" s="1">
         <v>0.88</v>
@@ -4191,15 +4207,15 @@
         <v>2010</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B139" s="1">
         <v>0.73</v>
@@ -4211,15 +4227,15 @@
         <v>2016</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B140" s="1">
         <v>0.92</v>
@@ -4231,15 +4247,15 @@
         <v>2015</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B141" s="1">
         <v>0.93</v>
@@ -4251,15 +4267,15 @@
         <v>2020</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B142" s="1">
         <v>0.89</v>
@@ -4271,15 +4287,15 @@
         <v>2017</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B143" s="1">
         <v>0.9</v>
@@ -4291,15 +4307,15 @@
         <v>2018</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B144" s="1">
         <v>0.85</v>
@@ -4311,15 +4327,15 @@
         <v>1998</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B145" s="1">
         <v>0.87</v>
@@ -4331,15 +4347,15 @@
         <v>2015</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B146" s="1">
         <v>0.87</v>
@@ -4351,15 +4367,15 @@
         <v>2018</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B147" s="1">
         <v>0.9</v>
@@ -4371,15 +4387,15 @@
         <v>2010</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B148" s="1">
         <v>0.9</v>
@@ -4391,15 +4407,15 @@
         <v>2017</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B149" s="1">
         <v>0.92</v>
@@ -4411,15 +4427,15 @@
         <v>1985</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B150" s="1">
         <v>0.8</v>
@@ -4431,15 +4447,15 @@
         <v>2010</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B151" s="1">
         <v>0.85</v>
@@ -4451,15 +4467,15 @@
         <v>1989</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B152" s="1">
         <v>0.72</v>
@@ -4471,15 +4487,15 @@
         <v>1984</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B153" s="1">
         <v>0.84</v>
@@ -4491,15 +4507,15 @@
         <v>2019</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B154" s="1">
         <v>0.5</v>
@@ -4511,15 +4527,15 @@
         <v>2020</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B155" s="1">
         <v>0.88</v>
@@ -4531,15 +4547,15 @@
         <v>1990</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B156" s="1">
         <v>0.83</v>
@@ -4551,15 +4567,15 @@
         <v>1994</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B157" s="1">
         <v>0.87</v>
@@ -4571,15 +4587,15 @@
         <v>2003</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="B158" s="1">
         <v>0.65</v>
@@ -4591,10 +4607,10 @@
         <v>2019</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">

--- a/Movies_2020.xlsx
+++ b/Movies_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandahutter/Documents/PythonCode/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C98AE2-E9C1-034B-AED9-45FBD28E6658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1E17E-5701-8541-83BD-F18E47A5C0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{A3B12357-EC55-AF4D-B077-7D2829E2EA33}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="350">
   <si>
     <t>Name</t>
   </si>
@@ -1050,7 +1050,40 @@
     <t>Call Me by Your Name</t>
   </si>
   <si>
-    <t>Oceans Eight</t>
+    <t>Ocean's Eight</t>
+  </si>
+  <si>
+    <t>Dolemite Is My Name</t>
+  </si>
+  <si>
+    <t>Craig Brewer</t>
+  </si>
+  <si>
+    <t>Holiday Inn</t>
+  </si>
+  <si>
+    <t>Mark Sandrich</t>
+  </si>
+  <si>
+    <t>Musical/Romance</t>
+  </si>
+  <si>
+    <t>National Lampoon's Christmas Vacation</t>
+  </si>
+  <si>
+    <t>Jeremiah Checkik</t>
+  </si>
+  <si>
+    <t>Home Alone</t>
+  </si>
+  <si>
+    <t>Comedy/Family</t>
+  </si>
+  <si>
+    <t>Beautiful Boy</t>
+  </si>
+  <si>
+    <t>Felix Van Groeningen</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D78A0-8C19-384F-8CAB-8EF5236C88A7}">
-  <dimension ref="A1:J980"/>
+  <dimension ref="A1:J981"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3703,416 +3736,416 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="B114" s="5">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="C114" s="2">
-        <v>43848</v>
+        <v>43824</v>
       </c>
       <c r="D114" s="1">
         <v>2019</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B115" s="5">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="C115" s="2">
-        <v>43910</v>
+        <v>43848</v>
       </c>
       <c r="D115" s="1">
-        <v>1989</v>
+        <v>2019</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B116" s="5">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="C116" s="2">
-        <v>43896</v>
+        <v>43910</v>
       </c>
       <c r="D116" s="1">
-        <v>1951</v>
+        <v>1989</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="B117" s="5">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="C117" s="2">
-        <v>43917</v>
+        <v>43896</v>
       </c>
       <c r="D117" s="1">
-        <v>1976</v>
+        <v>1951</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="B118" s="5">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="C118" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="D118" s="1">
-        <v>2001</v>
+        <v>1976</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B119" s="5">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="C119" s="2">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D119" s="1">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B120" s="5">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C120" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="D120" s="1">
-        <v>1989</v>
+        <v>2012</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B121" s="5">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="C121" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="D121" s="1">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B122" s="5">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="C122" s="2">
-        <v>43931</v>
+        <v>43926</v>
       </c>
       <c r="D122" s="1">
         <v>2016</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B123" s="5">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="C123" s="2">
-        <v>43938</v>
+        <v>43931</v>
       </c>
       <c r="D123" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="B124" s="5">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C124" s="2">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D124" s="1">
         <v>2019</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="B125" s="5">
-        <v>0.66</v>
+        <v>0.92</v>
       </c>
       <c r="C125" s="2">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="D125" s="1">
-        <v>1956</v>
+        <v>2019</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B126" s="5">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="C126" s="2">
-        <v>43952</v>
+        <v>43947</v>
       </c>
       <c r="D126" s="1">
-        <v>1973</v>
+        <v>1956</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B127" s="5">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="C127" s="2">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="D127" s="1">
-        <v>1993</v>
+        <v>1973</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="B128" s="5">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="C128" s="2">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="D128" s="1">
-        <v>1954</v>
+        <v>1993</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B129" s="5">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="C129" s="2">
-        <v>43960</v>
+        <v>43956</v>
       </c>
       <c r="D129" s="1">
-        <v>1994</v>
+        <v>1954</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="B130" s="5">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="C130" s="2">
-        <v>43967</v>
+        <v>43960</v>
       </c>
       <c r="D130" s="1">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B131" s="5">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C131" s="2">
-        <v>43973</v>
+        <v>43967</v>
       </c>
       <c r="D131" s="1">
-        <v>1976</v>
+        <v>2019</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B132" s="5">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="C132" s="2">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="D132" s="1">
-        <v>1954</v>
+        <v>1976</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="B133" s="5">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="C133" s="2">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="D133" s="1">
-        <v>1979</v>
+        <v>1954</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B134" s="5">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C134" s="2">
-        <v>43984</v>
+        <v>43976</v>
       </c>
       <c r="D134" s="1">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E134" s="1" t="s">
         <v>247</v>
@@ -4123,16 +4156,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B135" s="5">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="C135" s="2">
-        <v>43988</v>
+        <v>43984</v>
       </c>
       <c r="D135" s="1">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E135" s="1" t="s">
         <v>247</v>
@@ -4143,219 +4176,219 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B136" s="5">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="C136" s="2">
-        <v>43993</v>
+        <v>43988</v>
       </c>
       <c r="D136" s="1">
-        <v>2016</v>
+        <v>1985</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="B137" s="5">
         <v>0.9</v>
       </c>
       <c r="C137" s="2">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="D137" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B138" s="5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C138" s="2">
-        <v>43999</v>
+        <v>43995</v>
       </c>
       <c r="D138" s="1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="B139" s="5">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="C139" s="2">
-        <v>44008</v>
+        <v>43999</v>
       </c>
       <c r="D139" s="1">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="B140" s="5">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="C140" s="2">
-        <v>44005</v>
+        <v>44008</v>
       </c>
       <c r="D140" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="B141" s="5">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C141" s="2">
-        <v>44024</v>
+        <v>44005</v>
       </c>
       <c r="D141" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B142" s="5">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C142" s="2">
-        <v>44030</v>
+        <v>44024</v>
       </c>
       <c r="D142" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B143" s="5">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C143" s="2">
-        <v>44044</v>
+        <v>44030</v>
       </c>
       <c r="D143" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B144" s="5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C144" s="2">
-        <v>44055</v>
+        <v>44044</v>
       </c>
       <c r="D144" s="1">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="B145" s="5">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C145" s="2">
-        <v>44058</v>
+        <v>44055</v>
       </c>
       <c r="D145" s="1">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="B146" s="5">
         <v>0.87</v>
       </c>
       <c r="C146" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="D146" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>244</v>
@@ -4363,219 +4396,219 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="B147" s="5">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C147" s="2">
-        <v>44086</v>
+        <v>44059</v>
       </c>
       <c r="D147" s="1">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B148" s="5">
         <v>0.9</v>
       </c>
       <c r="C148" s="2">
-        <v>44101</v>
+        <v>44086</v>
       </c>
       <c r="D148" s="1">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B149" s="5">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C149" s="2">
-        <v>44120</v>
+        <v>44101</v>
       </c>
       <c r="D149" s="1">
-        <v>1985</v>
+        <v>2017</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B150" s="5">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="C150" s="2">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="D150" s="1">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B151" s="5">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C151" s="2">
-        <v>44129</v>
+        <v>44122</v>
       </c>
       <c r="D151" s="1">
-        <v>1989</v>
+        <v>2010</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="B152" s="5">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="C152" s="2">
-        <v>44135</v>
+        <v>44129</v>
       </c>
       <c r="D152" s="1">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="B153" s="5">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="C153" s="2">
-        <v>44142</v>
+        <v>44135</v>
       </c>
       <c r="D153" s="1">
-        <v>2019</v>
+        <v>1984</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B154" s="5">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="C154" s="2">
-        <v>44149</v>
+        <v>44142</v>
       </c>
       <c r="D154" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B155" s="5">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="C155" s="2">
-        <v>44164</v>
+        <v>44149</v>
       </c>
       <c r="D155" s="1">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B156" s="5">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="C156" s="2">
-        <v>44169</v>
+        <v>44164</v>
       </c>
       <c r="D156" s="1">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="B157" s="5">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="C157" s="2">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="D157" s="1">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>208</v>
@@ -4583,71 +4616,143 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B158" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44171</v>
+      </c>
+      <c r="D158" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B158" s="5">
+      <c r="B159" s="5">
         <v>0.65</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C159" s="2">
         <v>44172</v>
       </c>
-      <c r="D158" s="1">
+      <c r="D159" s="1">
         <v>2019</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="1"/>
-      <c r="B159" s="5"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-    </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="1"/>
-      <c r="B160" s="5"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-      <c r="F160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B160" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44175</v>
+      </c>
+      <c r="D160" s="1">
+        <v>1942</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="1"/>
-      <c r="B161" s="5"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-      <c r="F161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="C161" s="2">
+        <v>44185</v>
+      </c>
+      <c r="D161" s="1">
+        <v>1954</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="1"/>
-      <c r="B162" s="5"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C162" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D162" s="1">
+        <v>1989</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="1"/>
-      <c r="B163" s="5"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C163" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D163" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="1"/>
-      <c r="B164" s="5"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-      <c r="F164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44193</v>
+      </c>
+      <c r="D164" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
@@ -11177,6 +11282,14 @@
       <c r="E980" s="1"/>
       <c r="F980" s="1"/>
     </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A981" s="1"/>
+      <c r="B981" s="5"/>
+      <c r="C981" s="1"/>
+      <c r="D981" s="1"/>
+      <c r="E981" s="1"/>
+      <c r="F981" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Movies_2020.xlsx
+++ b/Movies_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandahutter/Documents/PythonCode/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F1E17E-5701-8541-83BD-F18E47A5C0B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB7EB9-A95C-9C48-A406-ED28E8D6F3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{A3B12357-EC55-AF4D-B077-7D2829E2EA33}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="355">
   <si>
     <t>Name</t>
   </si>
@@ -1084,6 +1084,21 @@
   </si>
   <si>
     <t>Felix Van Groeningen</t>
+  </si>
+  <si>
+    <t>Whiplash</t>
+  </si>
+  <si>
+    <t>Drama/Music</t>
+  </si>
+  <si>
+    <t>Bohemian Rhapsody</t>
+  </si>
+  <si>
+    <t>Bryan Singer</t>
+  </si>
+  <si>
+    <t>Music/Drama</t>
   </si>
 </sst>
 </file>
@@ -1460,10 +1475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D78A0-8C19-384F-8CAB-8EF5236C88A7}">
-  <dimension ref="A1:J981"/>
+  <dimension ref="A1:J983"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A149" sqref="A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2976,679 +2991,679 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.3</v>
+        <v>350</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0.88</v>
       </c>
       <c r="C76" s="2">
-        <v>43381</v>
+        <v>43352</v>
       </c>
       <c r="D76" s="1">
-        <v>1955</v>
+        <v>2014</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B77" s="5">
-        <v>0.99</v>
+        <v>0.3</v>
       </c>
       <c r="C77" s="2">
-        <v>43385</v>
+        <v>43381</v>
       </c>
       <c r="D77" s="1">
-        <v>2018</v>
+        <v>1955</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="B78" s="5">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="C78" s="2">
-        <v>43388</v>
+        <v>43385</v>
       </c>
       <c r="D78" s="1">
         <v>2018</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="B79" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C79" s="2">
         <v>43388</v>
       </c>
       <c r="D79" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80" s="5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C80" s="2">
-        <v>43401</v>
+        <v>43388</v>
       </c>
       <c r="D80" s="1">
-        <v>1984</v>
+        <v>2017</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>323</v>
+        <v>156</v>
       </c>
       <c r="B81" s="5">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="C81" s="2">
-        <v>43421</v>
+        <v>43401</v>
       </c>
       <c r="D81" s="1">
-        <v>2018</v>
+        <v>1984</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B82" s="5">
-        <v>0.7</v>
+        <v>352</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.9</v>
       </c>
       <c r="C82" s="2">
-        <v>43436</v>
+        <v>43406</v>
       </c>
       <c r="D82" s="1">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>160</v>
+        <v>353</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>20</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>323</v>
       </c>
       <c r="B83" s="5">
         <v>0.85</v>
       </c>
       <c r="C83" s="2">
-        <v>43450</v>
+        <v>43421</v>
       </c>
       <c r="D83" s="1">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B84" s="5">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="C84" s="2">
-        <v>43457</v>
+        <v>43436</v>
       </c>
       <c r="D84" s="1">
-        <v>1954</v>
+        <v>2003</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43450</v>
+      </c>
+      <c r="D85" s="1">
+        <v>2009</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43457</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1954</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B87" s="5">
         <v>0.99</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C87" s="2">
         <v>43471</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D87" s="1">
         <v>2018</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E87" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="C86" s="2">
-        <v>43486</v>
-      </c>
-      <c r="D86" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B87" s="5">
-        <v>0.85</v>
-      </c>
-      <c r="C87" s="2">
-        <v>43490</v>
-      </c>
-      <c r="D87" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>165</v>
+      <c r="A88" s="3" t="s">
+        <v>321</v>
       </c>
       <c r="B88" s="5">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="C88" s="2">
-        <v>43504</v>
+        <v>43486</v>
       </c>
       <c r="D88" s="1">
-        <v>1985</v>
+        <v>2001</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>167</v>
+      <c r="A89" s="3" t="s">
+        <v>322</v>
       </c>
       <c r="B89" s="5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C89" s="2">
-        <v>43509</v>
+        <v>43490</v>
       </c>
       <c r="D89" s="1">
-        <v>1942</v>
+        <v>2017</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B90" s="5">
-        <v>0.45</v>
+        <v>0.75</v>
       </c>
       <c r="C90" s="2">
-        <v>43527</v>
+        <v>43504</v>
       </c>
       <c r="D90" s="1">
-        <v>1945</v>
+        <v>1985</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B91" s="5">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="C91" s="2">
-        <v>43530</v>
+        <v>43509</v>
       </c>
       <c r="D91" s="1">
-        <v>2018</v>
+        <v>1942</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B92" s="5">
-        <v>0.9</v>
+        <v>0.45</v>
       </c>
       <c r="C92" s="2">
-        <v>43534</v>
+        <v>43527</v>
       </c>
       <c r="D92" s="1">
-        <v>2004</v>
+        <v>1945</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>173</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B93" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.65</v>
       </c>
       <c r="C93" s="2">
-        <v>43541</v>
+        <v>43530</v>
       </c>
       <c r="D93" s="1">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>176</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>319</v>
+        <v>171</v>
       </c>
       <c r="B94" s="5">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="C94" s="2">
-        <v>43581</v>
+        <v>43534</v>
       </c>
       <c r="D94" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>318</v>
+      <c r="A95" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="B95" s="5">
-        <v>0.9</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C95" s="2">
-        <v>43592</v>
+        <v>43541</v>
       </c>
       <c r="D95" s="1">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>180</v>
+        <v>319</v>
       </c>
       <c r="B96" s="5">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C96" s="2">
-        <v>43596</v>
+        <v>43581</v>
       </c>
       <c r="D96" s="1">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>176</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>181</v>
+      <c r="A97" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="B97" s="5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C97" s="2">
-        <v>43610</v>
+        <v>43592</v>
       </c>
       <c r="D97" s="1">
-        <v>1984</v>
+        <v>2019</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B98" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.8</v>
       </c>
       <c r="C98" s="2">
-        <v>43612</v>
+        <v>43596</v>
       </c>
       <c r="D98" s="1">
-        <v>1969</v>
+        <v>1997</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>317</v>
+        <v>181</v>
       </c>
       <c r="B99" s="5">
         <v>0.7</v>
       </c>
       <c r="C99" s="2">
-        <v>43620</v>
+        <v>43610</v>
       </c>
       <c r="D99" s="1">
-        <v>2016</v>
+        <v>1984</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B100" s="5">
-        <v>0.65</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C100" s="2">
-        <v>43624</v>
+        <v>43612</v>
       </c>
       <c r="D100" s="1">
-        <v>2012</v>
+        <v>1969</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>190</v>
+        <v>317</v>
       </c>
       <c r="B101" s="5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C101" s="2">
-        <v>43630</v>
+        <v>43620</v>
       </c>
       <c r="D101" s="1">
-        <v>1940</v>
+        <v>2016</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B102" s="5">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="C102" s="2">
-        <v>43630</v>
+        <v>43624</v>
       </c>
       <c r="D102" s="1">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>20</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B103" s="5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C103" s="2">
-        <v>43659</v>
+        <v>43630</v>
       </c>
       <c r="D103" s="1">
-        <v>1985</v>
+        <v>1940</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>310</v>
+        <v>191</v>
       </c>
       <c r="B104" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="C104" s="2">
-        <v>43662</v>
+        <v>43630</v>
       </c>
       <c r="D104" s="1">
         <v>2018</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>311</v>
+        <v>165</v>
       </c>
       <c r="B105" s="5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="C105" s="2">
-        <v>43687</v>
+        <v>43659</v>
       </c>
       <c r="D105" s="1">
-        <v>2019</v>
+        <v>1985</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>120</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>316</v>
+      <c r="A106" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="B106" s="5">
-        <v>0.8</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C106" s="2">
-        <v>43693</v>
+        <v>43662</v>
       </c>
       <c r="D106" s="1">
-        <v>1977</v>
+        <v>2018</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>198</v>
+        <v>311</v>
       </c>
       <c r="B107" s="5">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="C107" s="2">
-        <v>43694</v>
+        <v>43687</v>
       </c>
       <c r="D107" s="1">
         <v>2019</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>182</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
-        <v>308</v>
+      <c r="A108" s="3" t="s">
+        <v>316</v>
       </c>
       <c r="B108" s="5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C108" s="2">
-        <v>43704</v>
+        <v>43693</v>
       </c>
       <c r="D108" s="1">
-        <v>1980</v>
+        <v>1977</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B109" s="5">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="C109" s="2">
-        <v>43709</v>
+        <v>43694</v>
       </c>
       <c r="D109" s="1">
-        <v>2006</v>
+        <v>2019</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>182</v>
@@ -3656,399 +3671,399 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B110" s="5">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="C110" s="2">
-        <v>43798</v>
+        <v>43704</v>
       </c>
       <c r="D110" s="1">
-        <v>2019</v>
+        <v>1980</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>120</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B111" s="5">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="C111" s="2">
-        <v>43802</v>
+        <v>43709</v>
       </c>
       <c r="D111" s="1">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>206</v>
+        <v>309</v>
       </c>
       <c r="B112" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C112" s="2">
-        <v>43811</v>
+        <v>43798</v>
       </c>
       <c r="D112" s="1">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>88</v>
+        <v>204</v>
       </c>
       <c r="B113" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C113" s="2">
-        <v>43812</v>
+        <v>43802</v>
       </c>
       <c r="D113" s="1">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>339</v>
+        <v>206</v>
       </c>
       <c r="B114" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C114" s="2">
-        <v>43824</v>
+        <v>43811</v>
       </c>
       <c r="D114" s="1">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>340</v>
+        <v>207</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>15</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="B115" s="5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="C115" s="2">
-        <v>43848</v>
+        <v>43812</v>
       </c>
       <c r="D115" s="1">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>212</v>
+        <v>339</v>
       </c>
       <c r="B116" s="5">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="C116" s="2">
-        <v>43910</v>
+        <v>43824</v>
       </c>
       <c r="D116" s="1">
-        <v>1989</v>
+        <v>2019</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>213</v>
+        <v>340</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B117" s="5">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="C117" s="2">
-        <v>43896</v>
+        <v>43848</v>
       </c>
       <c r="D117" s="1">
-        <v>1951</v>
+        <v>2019</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>142</v>
+        <v>210</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="B118" s="5">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="C118" s="2">
-        <v>43917</v>
+        <v>43910</v>
       </c>
       <c r="D118" s="1">
-        <v>1976</v>
+        <v>1989</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B119" s="5">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="C119" s="2">
-        <v>43918</v>
+        <v>43896</v>
       </c>
       <c r="D119" s="1">
-        <v>2001</v>
+        <v>1951</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>219</v>
+        <v>142</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>221</v>
+        <v>307</v>
       </c>
       <c r="B120" s="5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C120" s="2">
-        <v>43924</v>
+        <v>43917</v>
       </c>
       <c r="D120" s="1">
-        <v>2012</v>
+        <v>1976</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>223</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>315</v>
+        <v>218</v>
       </c>
       <c r="B121" s="5">
-        <v>0.88</v>
+        <v>0.77</v>
       </c>
       <c r="C121" s="2">
-        <v>43925</v>
+        <v>43918</v>
       </c>
       <c r="D121" s="1">
-        <v>1989</v>
+        <v>2001</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>304</v>
+        <v>221</v>
       </c>
       <c r="B122" s="5">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="C122" s="2">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="D122" s="1">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B123" s="5">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="C123" s="2">
-        <v>43931</v>
+        <v>43925</v>
       </c>
       <c r="D123" s="1">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B124" s="5">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="C124" s="2">
-        <v>43938</v>
+        <v>43926</v>
       </c>
       <c r="D124" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>231</v>
+        <v>305</v>
       </c>
       <c r="B125" s="5">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="C125" s="2">
-        <v>43945</v>
+        <v>43931</v>
       </c>
       <c r="D125" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>120</v>
+        <v>228</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B126" s="5">
-        <v>0.66</v>
+        <v>0.91</v>
       </c>
       <c r="C126" s="2">
-        <v>43947</v>
+        <v>43938</v>
       </c>
       <c r="D126" s="1">
-        <v>1956</v>
+        <v>2019</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B127" s="5">
-        <v>0.87</v>
+        <v>0.92</v>
       </c>
       <c r="C127" s="2">
-        <v>43952</v>
+        <v>43945</v>
       </c>
       <c r="D127" s="1">
-        <v>1973</v>
+        <v>2019</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>237</v>
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
       <c r="B128" s="5">
-        <v>0.84</v>
+        <v>0.66</v>
       </c>
       <c r="C128" s="2">
-        <v>43953</v>
+        <v>43947</v>
       </c>
       <c r="D128" s="1">
-        <v>1993</v>
+        <v>1956</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>12</v>
+        <v>234</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>49</v>
+        <v>235</v>
       </c>
       <c r="B129" s="5">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="C129" s="2">
-        <v>43956</v>
+        <v>43952</v>
       </c>
       <c r="D129" s="1">
-        <v>1954</v>
+        <v>1973</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>142</v>
+        <v>236</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>237</v>
@@ -4056,99 +4071,99 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="B130" s="5">
-        <v>0.94</v>
+        <v>0.84</v>
       </c>
       <c r="C130" s="2">
-        <v>43960</v>
+        <v>43953</v>
       </c>
       <c r="D130" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>240</v>
+        <v>49</v>
       </c>
       <c r="B131" s="5">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="C131" s="2">
-        <v>43967</v>
+        <v>43956</v>
       </c>
       <c r="D131" s="1">
-        <v>2019</v>
+        <v>1954</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>241</v>
+        <v>142</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="B132" s="5">
-        <v>0.85</v>
+        <v>0.94</v>
       </c>
       <c r="C132" s="2">
-        <v>43973</v>
+        <v>43960</v>
       </c>
       <c r="D132" s="1">
-        <v>1976</v>
+        <v>1994</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>302</v>
+        <v>240</v>
       </c>
       <c r="B133" s="5">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="C133" s="2">
-        <v>43974</v>
+        <v>43967</v>
       </c>
       <c r="D133" s="1">
-        <v>1954</v>
+        <v>2019</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="B134" s="5">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C134" s="2">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="D134" s="1">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>244</v>
@@ -4156,36 +4171,36 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="B135" s="5">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="C135" s="2">
-        <v>43984</v>
+        <v>43974</v>
       </c>
       <c r="D135" s="1">
-        <v>1982</v>
+        <v>1954</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>284</v>
+        <v>246</v>
       </c>
       <c r="B136" s="5">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="C136" s="2">
-        <v>43988</v>
+        <v>43976</v>
       </c>
       <c r="D136" s="1">
-        <v>1985</v>
+        <v>1979</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>247</v>
@@ -4196,79 +4211,79 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="B137" s="5">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C137" s="2">
-        <v>43993</v>
+        <v>43984</v>
       </c>
       <c r="D137" s="1">
-        <v>2016</v>
+        <v>1982</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c r="B138" s="5">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="C138" s="2">
-        <v>43995</v>
+        <v>43988</v>
       </c>
       <c r="D138" s="1">
-        <v>2017</v>
+        <v>1985</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>176</v>
+        <v>244</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="B139" s="5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C139" s="2">
-        <v>43999</v>
+        <v>43993</v>
       </c>
       <c r="D139" s="1">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>254</v>
+        <v>313</v>
       </c>
       <c r="B140" s="5">
-        <v>0.73</v>
+        <v>0.9</v>
       </c>
       <c r="C140" s="2">
-        <v>44008</v>
+        <v>43995</v>
       </c>
       <c r="D140" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>176</v>
@@ -4276,499 +4291,523 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="B141" s="5">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="C141" s="2">
-        <v>44005</v>
+        <v>43999</v>
       </c>
       <c r="D141" s="1">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>125</v>
+        <v>252</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>182</v>
+        <v>253</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B142" s="5">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
       <c r="C142" s="2">
-        <v>44024</v>
+        <v>44008</v>
       </c>
       <c r="D142" s="1">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>101</v>
+        <v>176</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>298</v>
+        <v>16</v>
       </c>
       <c r="B143" s="5">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="C143" s="2">
-        <v>44030</v>
+        <v>44005</v>
       </c>
       <c r="D143" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>258</v>
+        <v>125</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B144" s="5">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="C144" s="2">
-        <v>44044</v>
+        <v>44024</v>
       </c>
       <c r="D144" s="1">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B145" s="5">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="C145" s="2">
-        <v>44055</v>
+        <v>44030</v>
       </c>
       <c r="D145" s="1">
-        <v>1998</v>
+        <v>2017</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>12</v>
+        <v>244</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="B146" s="5">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="C146" s="2">
-        <v>44058</v>
+        <v>44044</v>
       </c>
       <c r="D146" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>244</v>
+        <v>182</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B147" s="5">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C147" s="2">
-        <v>44059</v>
+        <v>44055</v>
       </c>
       <c r="D147" s="1">
-        <v>2018</v>
+        <v>1998</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B148" s="5">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C148" s="2">
-        <v>44086</v>
+        <v>44058</v>
       </c>
       <c r="D148" s="1">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="B149" s="5">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C149" s="2">
-        <v>44101</v>
+        <v>44059</v>
       </c>
       <c r="D149" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="B150" s="5">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C150" s="2">
-        <v>44120</v>
+        <v>44086</v>
       </c>
       <c r="D150" s="1">
-        <v>1985</v>
+        <v>2010</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>269</v>
+        <v>52</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B151" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C151" s="2">
-        <v>44122</v>
+        <v>44101</v>
       </c>
       <c r="D151" s="1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B152" s="5">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="C152" s="2">
-        <v>44129</v>
+        <v>44120</v>
       </c>
       <c r="D152" s="1">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="E152" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>156</v>
+        <v>270</v>
       </c>
       <c r="B153" s="5">
-        <v>0.72</v>
+        <v>0.8</v>
       </c>
       <c r="C153" s="2">
-        <v>44135</v>
+        <v>44122</v>
       </c>
       <c r="D153" s="1">
-        <v>1984</v>
+        <v>2010</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>157</v>
+        <v>271</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>273</v>
+        <v>228</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B154" s="5">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="C154" s="2">
-        <v>44142</v>
+        <v>44129</v>
       </c>
       <c r="D154" s="1">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>294</v>
+        <v>156</v>
       </c>
       <c r="B155" s="5">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="C155" s="2">
-        <v>44149</v>
+        <v>44135</v>
       </c>
       <c r="D155" s="1">
-        <v>2020</v>
+        <v>1984</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>276</v>
+        <v>157</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>12</v>
+        <v>273</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B156" s="5">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="C156" s="2">
-        <v>44164</v>
+        <v>44142</v>
       </c>
       <c r="D156" s="1">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B157" s="5">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="C157" s="2">
-        <v>44169</v>
+        <v>44149</v>
       </c>
       <c r="D157" s="1">
-        <v>1994</v>
+        <v>2020</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>208</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>206</v>
+        <v>296</v>
       </c>
       <c r="B158" s="5">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="C158" s="2">
-        <v>44171</v>
+        <v>44164</v>
       </c>
       <c r="D158" s="1">
-        <v>2003</v>
+        <v>1990</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B159" s="5">
-        <v>0.65</v>
+        <v>0.83</v>
       </c>
       <c r="C159" s="2">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="D159" s="1">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B160" s="1">
-        <v>0.7</v>
+        <v>206</v>
+      </c>
+      <c r="B160" s="5">
+        <v>0.87</v>
       </c>
       <c r="C160" s="2">
-        <v>44175</v>
+        <v>44171</v>
       </c>
       <c r="D160" s="1">
-        <v>1942</v>
+        <v>2003</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>342</v>
+        <v>279</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>343</v>
+        <v>208</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B161" s="1">
-        <v>0.95</v>
+        <v>280</v>
+      </c>
+      <c r="B161" s="5">
+        <v>0.65</v>
       </c>
       <c r="C161" s="2">
-        <v>44185</v>
+        <v>44172</v>
       </c>
       <c r="D161" s="1">
-        <v>1954</v>
+        <v>2019</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>84</v>
+        <v>281</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>189</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B162" s="1">
-        <v>0.25</v>
+        <v>0.7</v>
       </c>
       <c r="C162" s="2">
-        <v>44190</v>
+        <v>44175</v>
       </c>
       <c r="D162" s="1">
-        <v>1989</v>
+        <v>1942</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>75</v>
+        <v>343</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>346</v>
+        <v>83</v>
       </c>
       <c r="B163" s="1">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="C163" s="2">
-        <v>44191</v>
+        <v>44185</v>
       </c>
       <c r="D163" s="1">
-        <v>1990</v>
+        <v>1954</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>219</v>
+        <v>84</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>347</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B164" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C164" s="2">
+        <v>44190</v>
+      </c>
+      <c r="D164" s="1">
+        <v>1989</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C165" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D165" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B164" s="1">
+      <c r="B166" s="1">
         <v>0.68</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C166" s="2">
         <v>44193</v>
       </c>
-      <c r="D164" s="1">
+      <c r="D166" s="1">
         <v>2018</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E166" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F166" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="1"/>
-      <c r="B165" s="5"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-      <c r="F165" s="1"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="1"/>
-      <c r="B166" s="5"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
@@ -11290,6 +11329,22 @@
       <c r="E981" s="1"/>
       <c r="F981" s="1"/>
     </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A982" s="1"/>
+      <c r="B982" s="5"/>
+      <c r="C982" s="1"/>
+      <c r="D982" s="1"/>
+      <c r="E982" s="1"/>
+      <c r="F982" s="1"/>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A983" s="1"/>
+      <c r="B983" s="5"/>
+      <c r="C983" s="1"/>
+      <c r="D983" s="1"/>
+      <c r="E983" s="1"/>
+      <c r="F983" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Movies_2020.xlsx
+++ b/Movies_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amandahutter/Documents/PythonCode/Movies/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB7EB9-A95C-9C48-A406-ED28E8D6F3B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE63A50-F703-EF41-8964-2CDDDAC86C7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="460" windowWidth="28040" windowHeight="16420" xr2:uid="{A3B12357-EC55-AF4D-B077-7D2829E2EA33}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="358">
   <si>
     <t>Name</t>
   </si>
@@ -1099,6 +1099,15 @@
   </si>
   <si>
     <t>Music/Drama</t>
+  </si>
+  <si>
+    <t>Dunkirk</t>
+  </si>
+  <si>
+    <t>Christopher Nolan</t>
+  </si>
+  <si>
+    <t>War/Action</t>
   </si>
 </sst>
 </file>
@@ -1475,16 +1484,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC8D78A0-8C19-384F-8CAB-8EF5236C88A7}">
-  <dimension ref="A1:J983"/>
+  <dimension ref="A1:J984"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="A149" sqref="A149"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="35.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1883,7 +1893,7 @@
         <v>1959</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>32</v>
@@ -1903,7 +1913,7 @@
         <v>1955</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>48</v>
@@ -1923,7 +1933,7 @@
         <v>1954</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>48</v>
@@ -2163,7 +2173,7 @@
         <v>1955</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>48</v>
@@ -2183,7 +2193,7 @@
         <v>1954</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>46</v>
+        <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>32</v>
@@ -2590,200 +2600,200 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B56" s="5">
-        <v>0.9</v>
+      <c r="A56" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B56" s="1">
+        <v>0.7</v>
       </c>
       <c r="C56" s="2">
-        <v>42981</v>
+        <v>42959</v>
       </c>
       <c r="D56" s="1">
         <v>2017</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>115</v>
+        <v>356</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>32</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>116</v>
+      <c r="A57" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="B57" s="5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C57" s="2">
-        <v>42994</v>
+        <v>42981</v>
       </c>
       <c r="D57" s="1">
         <v>2017</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>118</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>335</v>
+      <c r="A58" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B58" s="5">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="C58" s="2">
-        <v>43030</v>
+        <v>42994</v>
       </c>
       <c r="D58" s="1">
         <v>2017</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>83</v>
+      <c r="A59" s="3" t="s">
+        <v>335</v>
       </c>
       <c r="B59" s="5">
         <v>0.9</v>
       </c>
       <c r="C59" s="2">
+        <v>43030</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B60" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C60" s="2">
         <v>43064</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D60" s="1">
         <v>1954</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F60" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B61" s="5">
         <v>0.7</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C61" s="2">
         <v>43084</v>
       </c>
-      <c r="D60" s="1">
+      <c r="D61" s="1">
         <v>2017</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="C61" s="2">
-        <v>43094</v>
-      </c>
-      <c r="D61" s="1">
-        <v>1957</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="B62" s="5">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C62" s="2">
-        <v>43095</v>
+        <v>43094</v>
       </c>
       <c r="D62" s="1">
-        <v>2015</v>
+        <v>1957</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="B63" s="5">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C63" s="2">
-        <v>43099</v>
+        <v>43095</v>
       </c>
       <c r="D63" s="1">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B64" s="5">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="C64" s="2">
-        <v>43128</v>
+        <v>43099</v>
       </c>
       <c r="D64" s="1">
         <v>2017</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B65" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C65" s="2">
-        <v>43161</v>
+        <v>43128</v>
       </c>
       <c r="D65" s="1">
         <v>2017</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>130</v>
@@ -2791,1436 +2801,1436 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43161</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B67" s="5">
         <v>0.65</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C67" s="2">
         <v>43183</v>
       </c>
-      <c r="D66" s="1">
+      <c r="D67" s="1">
         <v>2018</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="B67" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C67" s="2">
-        <v>43296</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2017</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B68" s="5">
         <v>0.8</v>
       </c>
       <c r="C68" s="2">
+        <v>43296</v>
+      </c>
+      <c r="D68" s="1">
+        <v>2017</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C69" s="2">
         <v>43302</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D69" s="1">
         <v>2018</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E69" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F69" s="1" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="C69" s="2">
-        <v>43307</v>
-      </c>
-      <c r="D69" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="B70" s="5">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="C70" s="2">
-        <v>43308</v>
+        <v>43307</v>
       </c>
       <c r="D70" s="1">
-        <v>2018</v>
+        <v>2001</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>141</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="B71" s="5">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C71" s="2">
-        <v>43327</v>
+        <v>43308</v>
       </c>
       <c r="D71" s="1">
-        <v>1958</v>
+        <v>2018</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="B72" s="5">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C72" s="2">
-        <v>43331</v>
+        <v>43327</v>
       </c>
       <c r="D72" s="1">
-        <v>1961</v>
+        <v>1958</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B73" s="5">
         <v>0.85</v>
       </c>
       <c r="C73" s="2">
+        <v>43331</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1961</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C74" s="2">
         <v>43333</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D74" s="1">
         <v>1946</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E74" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B75" s="5">
         <v>0.7</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C75" s="2">
         <v>43347</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D75" s="1">
         <v>2017</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B75" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="C75" s="2">
-        <v>43351</v>
-      </c>
-      <c r="D75" s="1">
-        <v>2016</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B76" s="1">
-        <v>0.88</v>
+        <v>102</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.9</v>
       </c>
       <c r="C76" s="2">
-        <v>43352</v>
+        <v>43351</v>
       </c>
       <c r="D76" s="1">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>103</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>351</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.3</v>
+        <v>350</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0.88</v>
       </c>
       <c r="C77" s="2">
-        <v>43381</v>
+        <v>43352</v>
       </c>
       <c r="D77" s="1">
-        <v>1955</v>
+        <v>2014</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B78" s="5">
-        <v>0.99</v>
+        <v>0.3</v>
       </c>
       <c r="C78" s="2">
-        <v>43385</v>
+        <v>43381</v>
       </c>
       <c r="D78" s="1">
-        <v>2018</v>
+        <v>1955</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>130</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>338</v>
+        <v>151</v>
       </c>
       <c r="B79" s="5">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="C79" s="2">
-        <v>43388</v>
+        <v>43385</v>
       </c>
       <c r="D79" s="1">
         <v>2018</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="B80" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C80" s="2">
         <v>43388</v>
       </c>
       <c r="D80" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B81" s="5">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="C81" s="2">
-        <v>43401</v>
+        <v>43388</v>
       </c>
       <c r="D81" s="1">
-        <v>1984</v>
+        <v>2017</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B82" s="1">
-        <v>0.9</v>
+        <v>156</v>
+      </c>
+      <c r="B82" s="5">
+        <v>0.75</v>
       </c>
       <c r="C82" s="2">
-        <v>43406</v>
+        <v>43401</v>
       </c>
       <c r="D82" s="1">
-        <v>2018</v>
+        <v>1984</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>353</v>
+        <v>157</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>354</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.85</v>
+        <v>352</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0.9</v>
       </c>
       <c r="C83" s="2">
-        <v>43421</v>
+        <v>43406</v>
       </c>
       <c r="D83" s="1">
         <v>2018</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>130</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>323</v>
       </c>
       <c r="B84" s="5">
-        <v>0.7</v>
+        <v>0.85</v>
       </c>
       <c r="C84" s="2">
-        <v>43436</v>
+        <v>43421</v>
       </c>
       <c r="D84" s="1">
-        <v>2003</v>
+        <v>2018</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>20</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="B85" s="5">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="C85" s="2">
-        <v>43450</v>
+        <v>43436</v>
       </c>
       <c r="D85" s="1">
-        <v>2009</v>
+        <v>2003</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>103</v>
+        <v>160</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="B86" s="5">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="C86" s="2">
-        <v>43457</v>
+        <v>43450</v>
       </c>
       <c r="D86" s="1">
-        <v>1954</v>
+        <v>2009</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43457</v>
+      </c>
+      <c r="D87" s="1">
+        <v>1954</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B88" s="5">
         <v>0.99</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C88" s="2">
         <v>43471</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D88" s="1">
         <v>2018</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E88" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="F88" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B88" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="C88" s="2">
-        <v>43486</v>
-      </c>
-      <c r="D88" s="1">
-        <v>2001</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B89" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43486</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B90" s="5">
         <v>0.85</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C90" s="2">
         <v>43490</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D90" s="1">
         <v>2017</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E90" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="C90" s="2">
-        <v>43504</v>
-      </c>
-      <c r="D90" s="1">
-        <v>1985</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B91" s="5">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="C91" s="2">
-        <v>43509</v>
+        <v>43504</v>
       </c>
       <c r="D91" s="1">
-        <v>1942</v>
+        <v>1985</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B92" s="5">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="C92" s="2">
-        <v>43527</v>
+        <v>43509</v>
       </c>
       <c r="D92" s="1">
-        <v>1945</v>
+        <v>1942</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>169</v>
+        <v>84</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B93" s="5">
-        <v>0.65</v>
+        <v>0.45</v>
       </c>
       <c r="C93" s="2">
-        <v>43530</v>
+        <v>43527</v>
       </c>
       <c r="D93" s="1">
-        <v>2018</v>
+        <v>1945</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B94" s="5">
-        <v>0.9</v>
+        <v>0.65</v>
       </c>
       <c r="C94" s="2">
-        <v>43534</v>
+        <v>43530</v>
       </c>
       <c r="D94" s="1">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>173</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B95" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.9</v>
       </c>
       <c r="C95" s="2">
-        <v>43541</v>
+        <v>43534</v>
       </c>
       <c r="D95" s="1">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B96" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C96" s="2">
+        <v>43541</v>
+      </c>
+      <c r="D96" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B97" s="5">
         <v>0.6</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C97" s="2">
         <v>43581</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D97" s="1">
         <v>2005</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E97" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B98" s="5">
         <v>0.9</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C98" s="2">
         <v>43592</v>
       </c>
-      <c r="D97" s="1">
+      <c r="D98" s="1">
         <v>2019</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E98" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B98" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C98" s="2">
-        <v>43596</v>
-      </c>
-      <c r="D98" s="1">
-        <v>1997</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B99" s="5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="C99" s="2">
-        <v>43610</v>
+        <v>43596</v>
       </c>
       <c r="D99" s="1">
-        <v>1984</v>
+        <v>1997</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>166</v>
+        <v>107</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B100" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="C100" s="2">
-        <v>43612</v>
+        <v>43610</v>
       </c>
       <c r="D100" s="1">
-        <v>1969</v>
+        <v>1984</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c r="B101" s="5">
-        <v>0.7</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C101" s="2">
-        <v>43620</v>
+        <v>43612</v>
       </c>
       <c r="D101" s="1">
-        <v>2016</v>
+        <v>1969</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>187</v>
+        <v>317</v>
       </c>
       <c r="B102" s="5">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C102" s="2">
-        <v>43624</v>
+        <v>43620</v>
       </c>
       <c r="D102" s="1">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>189</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B103" s="5">
-        <v>0.8</v>
+        <v>0.65</v>
       </c>
       <c r="C103" s="2">
-        <v>43630</v>
+        <v>43624</v>
       </c>
       <c r="D103" s="1">
-        <v>1940</v>
+        <v>2012</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>52</v>
+        <v>189</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B104" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="C104" s="2">
         <v>43630</v>
       </c>
       <c r="D104" s="1">
-        <v>2018</v>
+        <v>1940</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B105" s="5">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C105" s="2">
-        <v>43659</v>
+        <v>43630</v>
       </c>
       <c r="D105" s="1">
-        <v>1985</v>
+        <v>2018</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>166</v>
+        <v>192</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="B106" s="5">
-        <v>0.55000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="C106" s="2">
-        <v>43662</v>
+        <v>43659</v>
       </c>
       <c r="D106" s="1">
-        <v>2018</v>
+        <v>1985</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>194</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B107" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C107" s="2">
+        <v>43662</v>
+      </c>
+      <c r="D107" s="1">
+        <v>2018</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B107" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="C107" s="2">
-        <v>43687</v>
-      </c>
-      <c r="D107" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="B108" s="5">
         <v>0.8</v>
       </c>
       <c r="C108" s="2">
+        <v>43687</v>
+      </c>
+      <c r="D108" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B109" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C109" s="2">
         <v>43693</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D109" s="1">
         <v>1977</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="C109" s="2">
-        <v>43694</v>
-      </c>
-      <c r="D109" s="1">
-        <v>2019</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>308</v>
+        <v>198</v>
       </c>
       <c r="B110" s="5">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="C110" s="2">
-        <v>43704</v>
+        <v>43694</v>
       </c>
       <c r="D110" s="1">
-        <v>1980</v>
+        <v>2019</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>202</v>
+        <v>308</v>
       </c>
       <c r="B111" s="5">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="C111" s="2">
-        <v>43709</v>
+        <v>43704</v>
       </c>
       <c r="D111" s="1">
-        <v>2006</v>
+        <v>1980</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>309</v>
+        <v>202</v>
       </c>
       <c r="B112" s="5">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="C112" s="2">
-        <v>43798</v>
+        <v>43709</v>
       </c>
       <c r="D112" s="1">
-        <v>2019</v>
+        <v>2006</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>159</v>
+        <v>203</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>120</v>
+        <v>182</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
       <c r="B113" s="5">
         <v>0.85</v>
       </c>
       <c r="C113" s="2">
-        <v>43802</v>
+        <v>43798</v>
       </c>
       <c r="D113" s="1">
         <v>2019</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>205</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B114" s="5">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="C114" s="2">
-        <v>43811</v>
+        <v>43802</v>
       </c>
       <c r="D114" s="1">
-        <v>2003</v>
+        <v>2019</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>207</v>
+        <v>121</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>88</v>
+        <v>206</v>
       </c>
       <c r="B115" s="5">
         <v>0.8</v>
       </c>
       <c r="C115" s="2">
-        <v>43812</v>
+        <v>43811</v>
       </c>
       <c r="D115" s="1">
         <v>2003</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>20</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>339</v>
+        <v>88</v>
       </c>
       <c r="B116" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="C116" s="2">
-        <v>43824</v>
+        <v>43812</v>
       </c>
       <c r="D116" s="1">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>340</v>
+        <v>160</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>209</v>
+        <v>339</v>
       </c>
       <c r="B117" s="5">
-        <v>0.89</v>
+        <v>0.4</v>
       </c>
       <c r="C117" s="2">
-        <v>43848</v>
+        <v>43824</v>
       </c>
       <c r="D117" s="1">
         <v>2019</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>210</v>
+        <v>340</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B118" s="5">
-        <v>0.65</v>
+        <v>0.89</v>
       </c>
       <c r="C118" s="2">
-        <v>43910</v>
+        <v>43848</v>
       </c>
       <c r="D118" s="1">
-        <v>1989</v>
+        <v>2019</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B119" s="5">
-        <v>0.83</v>
+        <v>0.65</v>
       </c>
       <c r="C119" s="2">
-        <v>43896</v>
+        <v>43910</v>
       </c>
       <c r="D119" s="1">
-        <v>1951</v>
+        <v>1989</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="B120" s="5">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="C120" s="2">
-        <v>43917</v>
+        <v>43896</v>
       </c>
       <c r="D120" s="1">
-        <v>1976</v>
+        <v>1951</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>217</v>
+        <v>142</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>283</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>218</v>
+        <v>307</v>
       </c>
       <c r="B121" s="5">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="C121" s="2">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="D121" s="1">
-        <v>2001</v>
+        <v>1976</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>220</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B122" s="5">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="C122" s="2">
-        <v>43924</v>
+        <v>43918</v>
       </c>
       <c r="D122" s="1">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>315</v>
+        <v>221</v>
       </c>
       <c r="B123" s="5">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="C123" s="2">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="D123" s="1">
-        <v>1989</v>
+        <v>2012</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="B124" s="5">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="C124" s="2">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="D124" s="1">
-        <v>2016</v>
+        <v>1989</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>226</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B125" s="5">
-        <v>0.95</v>
+        <v>0.67</v>
       </c>
       <c r="C125" s="2">
-        <v>43931</v>
+        <v>43926</v>
       </c>
       <c r="D125" s="1">
         <v>2016</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B126" s="5">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="C126" s="2">
-        <v>43938</v>
+        <v>43931</v>
       </c>
       <c r="D126" s="1">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>231</v>
+        <v>306</v>
       </c>
       <c r="B127" s="5">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="C127" s="2">
-        <v>43945</v>
+        <v>43938</v>
       </c>
       <c r="D127" s="1">
         <v>2019</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>120</v>
+        <v>230</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>303</v>
+        <v>231</v>
       </c>
       <c r="B128" s="5">
-        <v>0.66</v>
+        <v>0.92</v>
       </c>
       <c r="C128" s="2">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="D128" s="1">
-        <v>1956</v>
+        <v>2019</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>234</v>
+        <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>235</v>
+        <v>303</v>
       </c>
       <c r="B129" s="5">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
       <c r="C129" s="2">
-        <v>43952</v>
+        <v>43947</v>
       </c>
       <c r="D129" s="1">
-        <v>1973</v>
+        <v>1956</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B130" s="5">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="C130" s="2">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="D130" s="1">
-        <v>1993</v>
+        <v>1973</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>12</v>
+        <v>237</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="B131" s="5">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="C131" s="2">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="D131" s="1">
-        <v>1954</v>
+        <v>1993</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>142</v>
+        <v>200</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>237</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="B132" s="5">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="C132" s="2">
-        <v>43960</v>
+        <v>43956</v>
       </c>
       <c r="D132" s="1">
-        <v>1994</v>
+        <v>1954</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>239</v>
+        <v>142</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>182</v>
+        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="B133" s="5">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="C133" s="2">
-        <v>43967</v>
+        <v>43960</v>
       </c>
       <c r="D133" s="1">
-        <v>2019</v>
+        <v>1994</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>242</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="B134" s="5">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="C134" s="2">
-        <v>43973</v>
+        <v>43967</v>
       </c>
       <c r="D134" s="1">
-        <v>1976</v>
+        <v>2019</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B135" s="5">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="C135" s="2">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="D135" s="1">
-        <v>1954</v>
+        <v>1976</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>27</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>246</v>
+        <v>302</v>
       </c>
       <c r="B136" s="5">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="C136" s="2">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="D136" s="1">
-        <v>1979</v>
+        <v>1954</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>244</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="B137" s="5">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="C137" s="2">
-        <v>43984</v>
+        <v>43976</v>
       </c>
       <c r="D137" s="1">
-        <v>1982</v>
+        <v>1979</v>
       </c>
       <c r="E137" s="1" t="s">
         <v>247</v>
@@ -4231,16 +4241,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B138" s="5">
-        <v>0.68</v>
+        <v>0.89</v>
       </c>
       <c r="C138" s="2">
-        <v>43988</v>
+        <v>43984</v>
       </c>
       <c r="D138" s="1">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>247</v>
@@ -4251,219 +4261,219 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B139" s="5">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="C139" s="2">
-        <v>43993</v>
+        <v>43988</v>
       </c>
       <c r="D139" s="1">
-        <v>2016</v>
+        <v>1985</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>313</v>
+        <v>248</v>
       </c>
       <c r="B140" s="5">
         <v>0.9</v>
       </c>
       <c r="C140" s="2">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="D140" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>176</v>
+        <v>250</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B141" s="5">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="C141" s="2">
-        <v>43999</v>
+        <v>43995</v>
       </c>
       <c r="D141" s="1">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>253</v>
+        <v>176</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="B142" s="5">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="C142" s="2">
-        <v>44008</v>
+        <v>43999</v>
       </c>
       <c r="D142" s="1">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="B143" s="5">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="C143" s="2">
-        <v>44005</v>
+        <v>44008</v>
       </c>
       <c r="D143" s="1">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="B144" s="5">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="C144" s="2">
-        <v>44024</v>
+        <v>44005</v>
       </c>
       <c r="D144" s="1">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>257</v>
+        <v>125</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B145" s="5">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="C145" s="2">
-        <v>44030</v>
+        <v>44024</v>
       </c>
       <c r="D145" s="1">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>244</v>
+        <v>101</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B146" s="5">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="C146" s="2">
-        <v>44044</v>
+        <v>44030</v>
       </c>
       <c r="D146" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>182</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B147" s="5">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="C147" s="2">
-        <v>44055</v>
+        <v>44044</v>
       </c>
       <c r="D147" s="1">
-        <v>1998</v>
+        <v>2018</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="B148" s="5">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="C148" s="2">
-        <v>44058</v>
+        <v>44055</v>
       </c>
       <c r="D148" s="1">
-        <v>2015</v>
+        <v>1998</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="B149" s="5">
         <v>0.87</v>
       </c>
       <c r="C149" s="2">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="D149" s="1">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>244</v>
@@ -4471,219 +4481,219 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="B150" s="5">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
       <c r="C150" s="2">
-        <v>44086</v>
+        <v>44059</v>
       </c>
       <c r="D150" s="1">
-        <v>2010</v>
+        <v>2018</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>52</v>
+        <v>244</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B151" s="5">
         <v>0.9</v>
       </c>
       <c r="C151" s="2">
-        <v>44101</v>
+        <v>44086</v>
       </c>
       <c r="D151" s="1">
-        <v>2017</v>
+        <v>2010</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>268</v>
+        <v>52</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="B152" s="5">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C152" s="2">
-        <v>44120</v>
+        <v>44101</v>
       </c>
       <c r="D152" s="1">
-        <v>1985</v>
+        <v>2017</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="B153" s="5">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="C153" s="2">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="D153" s="1">
-        <v>2010</v>
+        <v>1985</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>271</v>
+        <v>239</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="B154" s="5">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="C154" s="2">
-        <v>44129</v>
+        <v>44122</v>
       </c>
       <c r="D154" s="1">
-        <v>1989</v>
+        <v>2010</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>156</v>
+        <v>301</v>
       </c>
       <c r="B155" s="5">
-        <v>0.72</v>
+        <v>0.85</v>
       </c>
       <c r="C155" s="2">
-        <v>44135</v>
+        <v>44129</v>
       </c>
       <c r="D155" s="1">
-        <v>1984</v>
+        <v>1989</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>157</v>
+        <v>239</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="B156" s="5">
-        <v>0.84</v>
+        <v>0.72</v>
       </c>
       <c r="C156" s="2">
-        <v>44142</v>
+        <v>44135</v>
       </c>
       <c r="D156" s="1">
-        <v>2019</v>
+        <v>1984</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B157" s="5">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="C157" s="2">
-        <v>44149</v>
+        <v>44142</v>
       </c>
       <c r="D157" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>12</v>
+        <v>275</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B158" s="5">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="C158" s="2">
-        <v>44164</v>
+        <v>44149</v>
       </c>
       <c r="D158" s="1">
-        <v>1990</v>
+        <v>2020</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B159" s="5">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="C159" s="2">
-        <v>44169</v>
+        <v>44164</v>
       </c>
       <c r="D159" s="1">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>278</v>
+        <v>239</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="B160" s="5">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="C160" s="2">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="D160" s="1">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>208</v>
@@ -4691,139 +4701,163 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>280</v>
+        <v>206</v>
       </c>
       <c r="B161" s="5">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="C161" s="2">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="D161" s="1">
-        <v>2019</v>
+        <v>2003</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>282</v>
+        <v>208</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B162" s="1">
-        <v>0.7</v>
+        <v>280</v>
+      </c>
+      <c r="B162" s="5">
+        <v>0.65</v>
       </c>
       <c r="C162" s="2">
-        <v>44175</v>
+        <v>44172</v>
       </c>
       <c r="D162" s="1">
-        <v>1942</v>
+        <v>2019</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="B163" s="1">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="C163" s="2">
-        <v>44185</v>
+        <v>44175</v>
       </c>
       <c r="D163" s="1">
-        <v>1954</v>
+        <v>1942</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>84</v>
+        <v>342</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>189</v>
+        <v>343</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="B164" s="1">
-        <v>0.25</v>
+        <v>0.95</v>
       </c>
       <c r="C164" s="2">
-        <v>44190</v>
+        <v>44185</v>
       </c>
       <c r="D164" s="1">
-        <v>1989</v>
+        <v>1954</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>345</v>
+        <v>84</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>75</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B165" s="1">
-        <v>0.82</v>
+        <v>0.25</v>
       </c>
       <c r="C165" s="2">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="D165" s="1">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>347</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B166" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C166" s="2">
+        <v>44191</v>
+      </c>
+      <c r="D166" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B166" s="1">
+      <c r="B167" s="1">
         <v>0.68</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C167" s="2">
         <v>44193</v>
       </c>
-      <c r="D166" s="1">
+      <c r="D167" s="1">
         <v>2018</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E167" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F167" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="1"/>
-      <c r="B167" s="5"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-      <c r="F167" s="1"/>
-    </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="1"/>
-      <c r="B168" s="5"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-      <c r="F168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="C168" s="2">
+        <v>44196</v>
+      </c>
+      <c r="D168" s="1">
+        <v>1989</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
@@ -11345,6 +11379,14 @@
       <c r="E983" s="1"/>
       <c r="F983" s="1"/>
     </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A984" s="1"/>
+      <c r="B984" s="5"/>
+      <c r="C984" s="1"/>
+      <c r="D984" s="1"/>
+      <c r="E984" s="1"/>
+      <c r="F984" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
